--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.TR.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.TR.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-21T21:05:49+00:00</t>
+    <t>2022-01-10T18:47:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.TR.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.TR.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T18:47:14+00:00</t>
+    <t>2022-01-10T20:19:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.TR.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.TR.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T20:19:56+00:00</t>
+    <t>2022-01-10T22:39:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.TR.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.TR.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T22:39:32+00:00</t>
+    <t>2022-01-10T23:17:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.TR.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.TR.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T23:17:23+00:00</t>
+    <t>2022-01-14T00:18:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.TR.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.TR.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="173">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-14T00:18:13+00:00</t>
+    <t>2022-01-16T20:26:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -412,7 +412,7 @@
     <t>http://worldhealthorganization.github.io/ddcc/ValueSet/who-ddcc-agent-targeted-covid-19</t>
   </si>
   <si>
-    <t>Observation.extension[https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCTestPathogen]</t>
+    <t>Device.property.valueCode</t>
   </si>
   <si>
     <t>DDCCCoreDataSet.test.type</t>
@@ -430,6 +430,12 @@
     <t>Observation.code</t>
   </si>
   <si>
+    <t>Device.type</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.code</t>
+  </si>
+  <si>
     <t>DDCCCoreDataSet.test.brand</t>
   </si>
   <si>
@@ -439,9 +445,6 @@
     <t>The brand or trade name used to refer to the test conducted.</t>
   </si>
   <si>
-    <t>Observation.extension[https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCEventBrand]</t>
-  </si>
-  <si>
     <t>DDCCCoreDataSet.test.manufacturer</t>
   </si>
   <si>
@@ -451,7 +454,7 @@
     <t>Name of the manufacturer of the test conducted.</t>
   </si>
   <si>
-    <t>Observation.extension[https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCTestManufacturer]</t>
+    <t>Device.manufacturer</t>
   </si>
   <si>
     <t>DDCCCoreDataSet.test.origin</t>
@@ -467,6 +470,9 @@
   </si>
   <si>
     <t>Observation.method</t>
+  </si>
+  <si>
+    <t>Specimen.code</t>
   </si>
   <si>
     <t>DDCCCoreDataSet.test.date</t>
@@ -485,6 +491,15 @@
     <t>Observation.effective</t>
   </si>
   <si>
+    <t>Specimen.collection.collected</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.effective</t>
+  </si>
+  <si>
+    <t>Procedure.performed</t>
+  </si>
+  <si>
     <t>DDCCCoreDataSet.test.result</t>
   </si>
   <si>
@@ -509,7 +524,7 @@
     <t>A codable name or identifier of the facility responsible for conducting the test.</t>
   </si>
   <si>
-    <t>Observation.extension[https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCTestCentre]</t>
+    <t>Procedure.location</t>
   </si>
   <si>
     <t>DDCCCoreDataSet.test.country</t>
@@ -524,7 +539,7 @@
     <t>http://hl7.org/fhir/ValueSet/iso3166-1-3</t>
   </si>
   <si>
-    <t>Observation.extension[https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCCountryOfEvent]</t>
+    <t>Procedure.extension[https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCCountryOfEvent]</t>
   </si>
 </sst>
 </file>
@@ -829,7 +844,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AQ23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -874,9 +889,13 @@
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="24.9765625" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="105.98828125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="62.984375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="62.984375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="62.984375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="62.984375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="102.53125" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="62.984375" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="62.984375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -997,6 +1016,18 @@
       <c r="AM1" t="s" s="1">
         <v>73</v>
       </c>
+      <c r="AN1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AO1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AP1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AQ1" t="s" s="1">
+        <v>73</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
@@ -1106,6 +1137,18 @@
       <c r="AM2" t="s" s="2">
         <v>74</v>
       </c>
+      <c r="AN2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AO2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AP2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AQ2" t="s" s="2">
+        <v>74</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
@@ -1213,6 +1256,18 @@
         <v>74</v>
       </c>
       <c r="AM3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AO3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AP3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AQ3" t="s" s="2">
         <v>83</v>
       </c>
     </row>
@@ -1322,6 +1377,18 @@
         <v>74</v>
       </c>
       <c r="AM4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AO4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AP4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AQ4" t="s" s="2">
         <v>88</v>
       </c>
     </row>
@@ -1431,6 +1498,18 @@
         <v>74</v>
       </c>
       <c r="AM5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AO5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AP5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AQ5" t="s" s="2">
         <v>93</v>
       </c>
     </row>
@@ -1542,6 +1621,18 @@
       <c r="AM6" t="s" s="2">
         <v>74</v>
       </c>
+      <c r="AN6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AO6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AP6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AQ6" t="s" s="2">
+        <v>74</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
@@ -1646,9 +1737,21 @@
         <v>74</v>
       </c>
       <c r="AL7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AO7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AP7" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AM7" t="s" s="2">
+      <c r="AQ7" t="s" s="2">
         <v>74</v>
       </c>
     </row>
@@ -1760,6 +1863,18 @@
       <c r="AM8" t="s" s="2">
         <v>74</v>
       </c>
+      <c r="AN8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AO8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AP8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AQ8" t="s" s="2">
+        <v>74</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
@@ -1869,6 +1984,18 @@
       <c r="AM9" t="s" s="2">
         <v>74</v>
       </c>
+      <c r="AN9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AO9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AP9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AQ9" t="s" s="2">
+        <v>74</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
@@ -1978,6 +2105,18 @@
       <c r="AM10" t="s" s="2">
         <v>74</v>
       </c>
+      <c r="AN10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AO10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AP10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AQ10" t="s" s="2">
+        <v>74</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
@@ -2082,9 +2221,21 @@
         <v>74</v>
       </c>
       <c r="AL11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AO11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AP11" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AQ11" t="s" s="2">
         <v>74</v>
       </c>
     </row>
@@ -2196,6 +2347,18 @@
       <c r="AM12" t="s" s="2">
         <v>74</v>
       </c>
+      <c r="AN12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AO12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AP12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AQ12" t="s" s="2">
+        <v>74</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
@@ -2305,6 +2468,18 @@
       <c r="AM13" t="s" s="2">
         <v>74</v>
       </c>
+      <c r="AN13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AO13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AP13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AQ13" t="s" s="2">
+        <v>74</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
@@ -2414,6 +2589,18 @@
       <c r="AM14" t="s" s="2">
         <v>74</v>
       </c>
+      <c r="AN14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AO14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AP14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AQ14" t="s" s="2">
+        <v>74</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
@@ -2513,12 +2700,24 @@
         <v>74</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AO15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AP15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AQ15" t="s" s="2">
         <v>74</v>
       </c>
     </row>
@@ -2626,12 +2825,24 @@
         <v>74</v>
       </c>
       <c r="AM16" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AN16" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AO16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AP16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AQ16" t="s" s="2">
         <v>74</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2657,10 +2868,10 @@
         <v>125</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2711,7 +2922,7 @@
         <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
@@ -2729,18 +2940,30 @@
         <v>74</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>139</v>
+        <v>74</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM17" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AN17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AO17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AP17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AQ17" t="s" s="2">
         <v>74</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2766,10 +2989,10 @@
         <v>125</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2820,7 +3043,7 @@
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
@@ -2838,18 +3061,30 @@
         <v>74</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>143</v>
+        <v>74</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM18" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AN18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AO18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AP18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AQ18" t="s" s="2">
         <v>74</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2875,10 +3110,10 @@
         <v>125</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2909,7 +3144,7 @@
       </c>
       <c r="X19" s="2"/>
       <c r="Y19" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>74</v>
@@ -2927,7 +3162,7 @@
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
@@ -2945,18 +3180,30 @@
         <v>74</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="AM19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AO19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AP19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AQ19" t="s" s="2">
         <v>74</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2979,13 +3226,13 @@
         <v>80</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3036,7 +3283,7 @@
         <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>79</v>
@@ -3054,18 +3301,30 @@
         <v>74</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>74</v>
+        <v>156</v>
       </c>
       <c r="AM20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN20" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AO20" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AP20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AQ20" t="s" s="2">
         <v>74</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3091,10 +3350,10 @@
         <v>125</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3125,7 +3384,7 @@
       </c>
       <c r="X21" s="2"/>
       <c r="Y21" t="s" s="2">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>74</v>
@@ -3143,7 +3402,7 @@
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -3161,18 +3420,30 @@
         <v>74</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AO21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AP21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AQ21" t="s" s="2">
         <v>74</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3198,10 +3469,10 @@
         <v>125</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3252,7 +3523,7 @@
         <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -3270,18 +3541,30 @@
         <v>74</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AO22" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AP22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AQ22" t="s" s="2">
         <v>74</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3307,10 +3590,10 @@
         <v>125</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3341,7 +3624,7 @@
       </c>
       <c r="X23" s="2"/>
       <c r="Y23" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>74</v>
@@ -3359,7 +3642,7 @@
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>79</v>
@@ -3377,12 +3660,24 @@
         <v>74</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>167</v>
+        <v>74</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AO23" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AP23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AQ23" t="s" s="2">
         <v>74</v>
       </c>
     </row>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.TR.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.TR.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-16T20:26:17+00:00</t>
+    <t>2022-01-18T14:34:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.TR.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.TR.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-18T14:34:22+00:00</t>
+    <t>2022-01-19T20:52:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.TR.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.TR.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-19T20:52:52+00:00</t>
+    <t>2022-01-24T12:54:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.TR.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.TR.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-24T12:54:27+00:00</t>
+    <t>2022-01-24T13:03:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.TR.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.TR.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-24T13:03:50+00:00</t>
+    <t>2022-01-24T15:52:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.TR.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.TR.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-24T15:52:44+00:00</t>
+    <t>2022-01-24T18:58:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.TR.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.TR.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-24T18:58:51+00:00</t>
+    <t>2022-01-24T20:22:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.TR.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.TR.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-24T20:22:18+00:00</t>
+    <t>2022-01-25T14:32:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
